--- a/Project Management/weekly_hours.xlsx
+++ b/Project Management/weekly_hours.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Block_2\Project_Block_II\git\asd-engd-project-2022-extrinsic-sensor-calibration\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225506\OneDrive - TU Eindhoven\Documents\asd-engd-project-2022-extrinsic-sensor-calibration\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F5771-6C3E-47D5-B252-097E9E01A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF86060-31C9-4200-9A04-83F8BC63951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Week</t>
   </si>
@@ -55,6 +66,9 @@
   </si>
   <si>
     <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -111,13 +125,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +519,15 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM(C2:C8)</f>
+        <v>101.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
